--- a/ruoyi-admin/src/main/resources/excelTemplate/carTemlate.xlsx
+++ b/ruoyi-admin/src/main/resources/excelTemplate/carTemlate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>序号</t>
   </si>
@@ -22,7 +22,19 @@
     <t>日期</t>
   </si>
   <si>
-    <t>拖运起始地点、车型、车牌号、联系电话</t>
+    <t>拖运起始地点</t>
+  </si>
+  <si>
+    <t>拖运终点</t>
+  </si>
+  <si>
+    <t>车型</t>
+  </si>
+  <si>
+    <t>车牌号</t>
+  </si>
+  <si>
+    <t>联系电话</t>
   </si>
   <si>
     <t>收款
@@ -56,7 +68,7 @@
 付金额</t>
   </si>
   <si>
-    <t>司机汇
+    <t>司机回
 款金额</t>
   </si>
   <si>
@@ -86,7 +98,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +115,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -110,45 +129,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -163,33 +187,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,44 +212,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,19 +275,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,7 +317,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,31 +371,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,25 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,108 +461,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -468,12 +475,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -494,11 +514,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,54 +587,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -573,10 +595,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,162 +607,165 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1091,77 +1116,86 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.375" style="1" customWidth="1"/>
-    <col min="4" max="11" width="10.625" style="1" customWidth="1"/>
-    <col min="12" max="14" width="13.75" customWidth="1"/>
-    <col min="15" max="15" width="11.5" customWidth="1"/>
-    <col min="16" max="17" width="9.375" customWidth="1"/>
-    <col min="18" max="19" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
+    <col min="2" max="15" width="15.625" style="3" customWidth="1"/>
+    <col min="16" max="22" width="15.625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:18">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:22">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
